--- a/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>RVMD</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,90 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>38000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9800</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +776,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,37 +824,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>27500</v>
+        <v>32900</v>
       </c>
       <c r="E12" s="3">
         <v>27500</v>
       </c>
       <c r="F12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="G12" s="3">
         <v>64300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>32900</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E17" s="3">
         <v>32600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>72500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>38500</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-34500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28700</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,66 +1041,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-19300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-29300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1078,66 +1118,72 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-33100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30500</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4400</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-33100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30500</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-43100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-35000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1423,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-43100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-35000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-43100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-35000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,23 +1618,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E41" s="3">
         <v>182700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21800</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,23 +1648,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>301500</v>
+      </c>
+      <c r="E42" s="3">
         <v>165300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>106100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>114500</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,23 +1680,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E43" s="3">
         <v>8500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1619,8 +1712,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,23 +1744,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E45" s="3">
         <v>5700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,23 +1776,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>340400</v>
+      </c>
+      <c r="E46" s="3">
         <v>362100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>134000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>149100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1808,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,23 +1840,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E48" s="3">
         <v>15200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,23 +1872,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E49" s="3">
         <v>76400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>76600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>76900</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,23 +1968,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,23 +2032,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E54" s="3">
         <v>454300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>220500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>234700</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,23 +2094,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E57" s="3">
         <v>7900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,13 +2124,16 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -2007,8 +2141,8 @@
       <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2022,8 +2156,11 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2031,14 +2168,14 @@
         <v>33500</v>
       </c>
       <c r="E59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="F59" s="3">
         <v>31500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,23 +2188,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E60" s="3">
         <v>41500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>43100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>38600</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,8 +2220,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,23 +2252,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E62" s="3">
         <v>27500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>30400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,23 +2380,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>93500</v>
+      </c>
+      <c r="E66" s="3">
         <v>69000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>68000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>69100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2334,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>305100</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>305100</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>305100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,23 +2554,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-204100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-176900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-157400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-142800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,23 +2682,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>360500</v>
+      </c>
+      <c r="E76" s="3">
         <v>385300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-152600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-139400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-43100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-35000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2645,25 +2844,28 @@
         <v>900</v>
       </c>
       <c r="F83" s="3">
+        <v>900</v>
+      </c>
+      <c r="G83" s="3">
         <v>2500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3021,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-38000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>13000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3069,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3163,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-136500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-59700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>8000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-110000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,37 +3337,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>253700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>4200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>56600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3401,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-157800</v>
+      </c>
+      <c r="E102" s="3">
         <v>166000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-47800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>68300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>RVMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,97 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E8" s="3">
         <v>10000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9800</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,8 +786,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,40 +838,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E12" s="3">
         <v>32900</v>
-      </c>
-      <c r="E12" s="3">
-        <v>27500</v>
       </c>
       <c r="F12" s="3">
         <v>27500</v>
       </c>
       <c r="G12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="H12" s="3">
         <v>64300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>32900</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E17" s="3">
         <v>38000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>32600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>72500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-28000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-21100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-34500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-28700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,40 +1075,44 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1083,31 +1120,34 @@
         <v>-26300</v>
       </c>
       <c r="E21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-19300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-30500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-29300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1121,72 +1161,78 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-33100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-30500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4400</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1202,8 +1248,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,8 +1283,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1243,31 +1295,34 @@
         <v>-27200</v>
       </c>
       <c r="E26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-19500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-33100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1275,31 +1330,34 @@
         <v>-27200</v>
       </c>
       <c r="E27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-21700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-43100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-35000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,40 +1493,46 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1467,31 +1540,34 @@
         <v>-27200</v>
       </c>
       <c r="E33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-21700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-43100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-35000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,8 +1598,11 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1531,68 +1610,74 @@
         <v>-27200</v>
       </c>
       <c r="E35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-21700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-43100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-35000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,26 +1705,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E41" s="3">
         <v>24000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>182700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21800</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,26 +1738,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>401300</v>
+      </c>
+      <c r="E42" s="3">
         <v>301500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>165300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>106100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>114500</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1683,26 +1773,29 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E43" s="3">
         <v>7300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1808,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,26 +1843,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E45" s="3">
         <v>7600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,26 +1878,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>482900</v>
+      </c>
+      <c r="E46" s="3">
         <v>340400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>362100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>134000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>149100</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1913,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,26 +1948,29 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E48" s="3">
         <v>36000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,26 +1983,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E49" s="3">
         <v>76100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>76400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>76600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>76900</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,8 +2018,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,26 +2088,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2123,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,26 +2158,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>595100</v>
+      </c>
+      <c r="E54" s="3">
         <v>454000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>454300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>220500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>234700</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,26 +2225,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E57" s="3">
         <v>10200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2258,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2136,7 +2270,7 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -2144,8 +2278,8 @@
       <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2159,26 +2293,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33500</v>
+        <v>35700</v>
       </c>
       <c r="E59" s="3">
         <v>33500</v>
       </c>
       <c r="F59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="G59" s="3">
         <v>31500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,26 +2328,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E60" s="3">
         <v>43700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>41500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>43100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38600</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,8 +2363,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2255,26 +2398,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E62" s="3">
         <v>49700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>30400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2433,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,26 +2538,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E66" s="3">
         <v>93500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>69000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>68000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>69100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2505,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>305100</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>305100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>305100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,26 +2728,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-231300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-204100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-176900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-157400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-142800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,26 +2868,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>505100</v>
+      </c>
+      <c r="E76" s="3">
         <v>360500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>385300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-152600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-139400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,45 +2938,51 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2795,31 +2990,34 @@
         <v>-27200</v>
       </c>
       <c r="E81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-21700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-43100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-35000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2847,25 +3046,28 @@
         <v>900</v>
       </c>
       <c r="G83" s="3">
+        <v>900</v>
+      </c>
+      <c r="H83" s="3">
         <v>2500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-38000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>13000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-136500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-59700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>8000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-110000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,40 +3583,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>168900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>253700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>4200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>56600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,36 +3653,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-157800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>166000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-47800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>68300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>RVMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,103 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E8" s="3">
         <v>12700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9800</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +795,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,43 +851,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E12" s="3">
         <v>34900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>32900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>27500</v>
       </c>
       <c r="G12" s="3">
         <v>27500</v>
       </c>
       <c r="H12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="I12" s="3">
         <v>64300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>18200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>32900</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +963,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1016,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E17" s="3">
         <v>40200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>31700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>72500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-28000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-34500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-28700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,78 +1108,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-26300</v>
+        <v>-32900</v>
       </c>
       <c r="E21" s="3">
         <v>-26300</v>
       </c>
       <c r="F21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-19300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-30500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-29300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1164,78 +1203,84 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-33100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-30500</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4400</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1251,8 +1296,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1334,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-27200</v>
+        <v>-34200</v>
       </c>
       <c r="E26" s="3">
         <v>-27200</v>
       </c>
       <c r="F26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-19500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-33100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-27200</v>
+        <v>-34200</v>
       </c>
       <c r="E27" s="3">
         <v>-27200</v>
       </c>
       <c r="F27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-21700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-43100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-35000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1562,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-27200</v>
+        <v>-34200</v>
       </c>
       <c r="E33" s="3">
         <v>-27200</v>
       </c>
       <c r="F33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-21700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-43100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-35000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1676,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-27200</v>
+        <v>-34200</v>
       </c>
       <c r="E35" s="3">
         <v>-27200</v>
       </c>
       <c r="F35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-21700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-43100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-35000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,29 +1791,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E41" s="3">
         <v>64900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>182700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21800</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,29 +1827,32 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>336500</v>
+      </c>
+      <c r="E42" s="3">
         <v>401300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>301500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>165300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>106100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>114500</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1776,29 +1865,32 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E43" s="3">
         <v>9300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1903,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,29 +1941,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E45" s="3">
         <v>7500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,29 +1979,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>454100</v>
+      </c>
+      <c r="E46" s="3">
         <v>482900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>340400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>362100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>134000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>149100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,29 +2055,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E48" s="3">
         <v>35200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,29 +2093,32 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E49" s="3">
         <v>75800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>76100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>76400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>76600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>76900</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2131,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,29 +2207,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,29 +2283,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>567400</v>
+      </c>
+      <c r="E54" s="3">
         <v>595100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>454000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>454300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>220500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>234700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,29 +2355,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E57" s="3">
         <v>6700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,19 +2391,22 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>100</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -2281,8 +2414,8 @@
       <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2296,29 +2429,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E59" s="3">
         <v>35700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>33500</v>
       </c>
       <c r="F59" s="3">
         <v>33500</v>
       </c>
       <c r="G59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="H59" s="3">
         <v>31500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,29 +2467,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E60" s="3">
         <v>42400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>43700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>41500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>43100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38600</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +2505,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,29 +2543,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E62" s="3">
         <v>47600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>49700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>27500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>30400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,29 +2695,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E66" s="3">
         <v>90000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>93500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>69000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>69100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2676,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>305100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>305100</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>305100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2696,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,29 +2901,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-265500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-231300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-204100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-176900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-157400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-142800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,29 +3053,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>474700</v>
+      </c>
+      <c r="E76" s="3">
         <v>505100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>360500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>385300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-152600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-139400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3129,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-27200</v>
+        <v>-34200</v>
       </c>
       <c r="E81" s="3">
         <v>-27200</v>
       </c>
       <c r="F81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-21700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-43100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-35000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3049,25 +3247,28 @@
         <v>900</v>
       </c>
       <c r="H83" s="3">
+        <v>900</v>
+      </c>
+      <c r="I83" s="3">
         <v>2500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3454,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-38000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3510,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3622,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-101000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-136500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-59700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>8000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-110000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +3828,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>168900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>253700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>4200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>56600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3904,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E102" s="3">
         <v>40900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-157800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>166000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-47800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>68300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>RVMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,110 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E8" s="3">
         <v>8800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9800</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,8 +805,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,46 +865,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E12" s="3">
         <v>37000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>34900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>32900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>27500</v>
       </c>
       <c r="H12" s="3">
         <v>27500</v>
       </c>
       <c r="I12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="J12" s="3">
         <v>64300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>32900</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,84 +1043,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E17" s="3">
         <v>42800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>72500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-34000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-28700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,84 +1142,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-32900</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-26300</v>
       </c>
       <c r="F21" s="3">
         <v>-26300</v>
       </c>
       <c r="G21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-19300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-30500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-29300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1206,84 +1246,90 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-33800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-33100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-30500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4400</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-27200</v>
       </c>
       <c r="F26" s="3">
         <v>-27200</v>
       </c>
       <c r="G26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-19500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-33100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-27200</v>
       </c>
       <c r="F27" s="3">
         <v>-27200</v>
       </c>
       <c r="G27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-21700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-43100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-35000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,84 +1632,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-27200</v>
       </c>
       <c r="F33" s="3">
         <v>-27200</v>
       </c>
       <c r="G33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-21700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-43100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-35000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-27200</v>
       </c>
       <c r="F35" s="3">
         <v>-27200</v>
       </c>
       <c r="G35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-21700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-43100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-35000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,32 +1878,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>351600</v>
+      </c>
+      <c r="E41" s="3">
         <v>104300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>64900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>182700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21800</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,32 +1917,35 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E42" s="3">
         <v>336500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>401300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>301500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>165300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>106100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>114500</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,32 +1958,35 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E43" s="3">
         <v>6400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,32 +2040,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E45" s="3">
         <v>7000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,32 +2081,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>697400</v>
+      </c>
+      <c r="E46" s="3">
         <v>454100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>482900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>340400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>362100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>134000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>149100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,32 +2163,35 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E48" s="3">
         <v>36300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,32 +2204,35 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E49" s="3">
         <v>75600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>75800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>76100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>76400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>76600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>76900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,8 +2327,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2219,23 +2339,23 @@
         <v>1400</v>
       </c>
       <c r="E52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,32 +2409,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>811700</v>
+      </c>
+      <c r="E54" s="3">
         <v>567400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>595100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>454000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>454300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>220500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>234700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,32 +2486,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E57" s="3">
         <v>12600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,22 +2525,25 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -2417,8 +2551,8 @@
       <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2432,32 +2566,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E59" s="3">
         <v>34600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>33500</v>
       </c>
       <c r="G59" s="3">
         <v>33500</v>
       </c>
       <c r="H59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="I59" s="3">
         <v>31500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,32 +2607,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E60" s="3">
         <v>47200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>42400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>43700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>41500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>43100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,8 +2648,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2546,32 +2689,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E62" s="3">
         <v>45500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>47600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>49700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>27500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>30400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,32 +2853,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>89100</v>
+      </c>
+      <c r="E66" s="3">
         <v>92700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>90000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>93500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>69000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>68000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>69100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2846,13 +3014,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>305100</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>305100</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>305100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,32 +3075,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-302700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-265500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-231300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-204100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-176900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-157400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-142800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,32 +3239,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>722600</v>
+      </c>
+      <c r="E76" s="3">
         <v>474700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>505100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>360500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>385300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-152600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-139400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-27200</v>
       </c>
       <c r="F81" s="3">
         <v>-27200</v>
       </c>
       <c r="G81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-21700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-43100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-35000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3250,25 +3449,28 @@
         <v>900</v>
       </c>
       <c r="I83" s="3">
+        <v>900</v>
+      </c>
+      <c r="J83" s="3">
         <v>2500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3671,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-25000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-38000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,46 +3731,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,46 +3852,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E94" s="3">
         <v>62900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-101000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-136500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-59700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>8000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-110000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,46 +4074,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>282300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>168900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>253700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>4200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>56600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,42 +4156,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>247300</v>
+      </c>
+      <c r="E102" s="3">
         <v>39400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>40900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-157800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>166000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-47800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>68300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>RVMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,117 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E8" s="3">
         <v>10100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9800</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,8 +815,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,49 +879,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E12" s="3">
         <v>40900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>37000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>34900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>32900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>27500</v>
       </c>
       <c r="I12" s="3">
         <v>27500</v>
       </c>
       <c r="J12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K12" s="3">
         <v>64300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>18200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>32900</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E17" s="3">
         <v>47500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>42800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>72500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-34000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-28000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-21100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-34500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-28700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,90 +1176,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-36200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-32900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-26300</v>
       </c>
       <c r="G21" s="3">
         <v>-26300</v>
       </c>
       <c r="H21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-19300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-30500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-29300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1249,90 +1289,96 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-33800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-33100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-30500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4400</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-37200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-27200</v>
       </c>
       <c r="G26" s="3">
         <v>-27200</v>
       </c>
       <c r="H26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-19500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-33100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-30500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-27200</v>
       </c>
       <c r="G27" s="3">
         <v>-27200</v>
       </c>
       <c r="H27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-21700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-43100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-35000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1702,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-27200</v>
       </c>
       <c r="G33" s="3">
         <v>-27200</v>
       </c>
       <c r="H33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-21700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-43100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-35000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-27200</v>
       </c>
       <c r="G35" s="3">
         <v>-27200</v>
       </c>
       <c r="H35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-21700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-43100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-35000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,35 +1965,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>195600</v>
+      </c>
+      <c r="E41" s="3">
         <v>351600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>104300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>64900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>182700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,35 +2007,38 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>450700</v>
+      </c>
+      <c r="E42" s="3">
         <v>330000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>336500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>401300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>301500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>165300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>106100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>114500</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,35 +2051,38 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E43" s="3">
         <v>7600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2095,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,8 +2139,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2052,26 +2151,26 @@
         <v>8200</v>
       </c>
       <c r="E45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F45" s="3">
         <v>7000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,35 +2183,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>661000</v>
+      </c>
+      <c r="E46" s="3">
         <v>697400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>454100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>482900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>340400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>362100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>134000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>149100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2227,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,35 +2271,38 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E48" s="3">
         <v>37600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,35 +2315,38 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E49" s="3">
         <v>75300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>75600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>75800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>76100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>76400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>76600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>76900</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,35 +2447,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E52" s="3">
         <v>1400</v>
       </c>
       <c r="F52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,35 +2535,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>774000</v>
+      </c>
+      <c r="E54" s="3">
         <v>811700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>567400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>595100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>454000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>454300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>220500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>234700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,35 +2617,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E57" s="3">
         <v>9700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2539,14 +2673,14 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -2554,8 +2688,8 @@
       <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>200</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2569,35 +2703,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E59" s="3">
         <v>34100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>35700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>33500</v>
       </c>
       <c r="H59" s="3">
         <v>33500</v>
       </c>
       <c r="I59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="J59" s="3">
         <v>31500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,35 +2747,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E60" s="3">
         <v>43800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>47200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>42400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>43700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>41500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>43100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2791,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2692,35 +2835,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E62" s="3">
         <v>45300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>45500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>47600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>49700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>27500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>30400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,35 +3011,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E66" s="3">
         <v>89100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>92700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>90000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>93500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>69000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>68000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>69100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3017,13 +3185,13 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>305100</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>305100</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>305100</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,35 +3249,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-347000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-302700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-265500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-231300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-204100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-176900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-157400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-142800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,35 +3425,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>685000</v>
+      </c>
+      <c r="E76" s="3">
         <v>722600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>474700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>505100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>360500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>385300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-152600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-139400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-27200</v>
       </c>
       <c r="G81" s="3">
         <v>-27200</v>
       </c>
       <c r="H81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-21700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-43100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-35000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,13 +3626,14 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E83" s="3">
         <v>900</v>
@@ -3452,25 +3651,28 @@
         <v>900</v>
       </c>
       <c r="J83" s="3">
+        <v>900</v>
+      </c>
+      <c r="K83" s="3">
         <v>2500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-25000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-38000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +3952,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4082,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-122800</v>
+      </c>
+      <c r="E94" s="3">
         <v>2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>62900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-101000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-136500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-59700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>8000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-110000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,49 +4320,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>282300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>168900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>253700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>4200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>56600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-156000</v>
+      </c>
+      <c r="E102" s="3">
         <v>247300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>39400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>40900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-157800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>166000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-47800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>68300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>RVMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,124 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
         <v>8700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9800</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E12" s="3">
         <v>45900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>40900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>37000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>34900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>32900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>27500</v>
       </c>
       <c r="J12" s="3">
         <v>27500</v>
       </c>
       <c r="K12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="L12" s="3">
         <v>64300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>32900</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E17" s="3">
         <v>53200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>47500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>42800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>38000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>72500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-44500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-37400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-34000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-27500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-28000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-21100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-34500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-28700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,87 +1220,93 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-43200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-36200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-32900</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-26300</v>
       </c>
       <c r="H21" s="3">
         <v>-26300</v>
       </c>
       <c r="I21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-19300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-30500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-29300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1292,96 +1332,102 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-44300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-33800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-33100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-30500</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4400</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-44300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-37200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-27200</v>
       </c>
       <c r="H26" s="3">
         <v>-27200</v>
       </c>
       <c r="I26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-19500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-33100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-30500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-44300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-37200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-27200</v>
       </c>
       <c r="H27" s="3">
         <v>-27200</v>
       </c>
       <c r="I27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-21700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-43100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-35000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1714,87 +1784,93 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-44300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-37200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-27200</v>
       </c>
       <c r="H33" s="3">
         <v>-27200</v>
       </c>
       <c r="I33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-21700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-43100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-35000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-44300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-37200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-27200</v>
       </c>
       <c r="H35" s="3">
         <v>-27200</v>
       </c>
       <c r="I35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-21700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-43100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-35000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,38 +2052,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E41" s="3">
         <v>195600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>351600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>104300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>64900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>182700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,38 +2097,41 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>479500</v>
+      </c>
+      <c r="E42" s="3">
         <v>450700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>330000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>336500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>401300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>301500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>165300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>106100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>114500</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2054,38 +2144,41 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E43" s="3">
         <v>6500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,38 +2238,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="E45" s="3">
         <v>8200</v>
       </c>
       <c r="F45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G45" s="3">
         <v>7000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,38 +2285,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>623500</v>
+      </c>
+      <c r="E46" s="3">
         <v>661000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>697400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>454100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>482900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>340400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>362100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>134000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>149100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,38 +2379,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E48" s="3">
         <v>36700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>37600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>36000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,38 +2426,41 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E49" s="3">
         <v>75000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>75300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>75600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>75800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>76100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>76400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>76600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>76900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2459,29 +2579,29 @@
         <v>1300</v>
       </c>
       <c r="E52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F52" s="3">
         <v>1400</v>
       </c>
       <c r="G52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,38 +2661,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>735000</v>
+      </c>
+      <c r="E54" s="3">
         <v>774000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>811700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>567400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>595100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>454000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>454300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>220500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>234700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,38 +2748,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E57" s="3">
         <v>10400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2676,14 +2810,14 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -2691,8 +2825,8 @@
       <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>200</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2706,38 +2840,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E59" s="3">
         <v>35400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>35700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>33500</v>
       </c>
       <c r="I59" s="3">
         <v>33500</v>
       </c>
       <c r="J59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K59" s="3">
         <v>31500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,38 +2887,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E60" s="3">
         <v>45800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>43800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>47200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>42400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>43700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>41500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>43100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2934,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,38 +2981,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E62" s="3">
         <v>43200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>45300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>47600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>49700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>30400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,38 +3169,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E66" s="3">
         <v>89000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>89100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>92700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>90000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>93500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>69000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>68000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3188,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>305100</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>305100</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>305100</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,38 +3423,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-400000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-347000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-302700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-265500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-231300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-204100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-176900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-157400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-142800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,38 +3611,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>638200</v>
+      </c>
+      <c r="E76" s="3">
         <v>685000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>722600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>474700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>505100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>360500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>385300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-152600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-139400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-44300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-37200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-27200</v>
       </c>
       <c r="H81" s="3">
         <v>-27200</v>
       </c>
       <c r="I81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-21700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-43100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-35000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3636,7 +3835,7 @@
         <v>1100</v>
       </c>
       <c r="E83" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F83" s="3">
         <v>900</v>
@@ -3654,25 +3853,28 @@
         <v>900</v>
       </c>
       <c r="K83" s="3">
+        <v>900</v>
+      </c>
+      <c r="L83" s="3">
         <v>2500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-34100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-28000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-38000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-122800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>62900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-101000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-136500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-59700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-110000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>282300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>168900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>253700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>4200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>56600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-156000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>247300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>39400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>40900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-157800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>166000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-47800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>68300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>RVMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,130 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9800</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +834,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +906,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E12" s="3">
         <v>46500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>45900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>40900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>37000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>34900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>32900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>27500</v>
       </c>
       <c r="K12" s="3">
         <v>27500</v>
       </c>
       <c r="L12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="M12" s="3">
         <v>64300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>32900</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1054,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1123,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E17" s="3">
         <v>54300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>53200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>47500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>42800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>38000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>72500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-53200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-44500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-34000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-27500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-34500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-28700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1243,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,90 +1256,96 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-51900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-43200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-36200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-32900</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-26300</v>
       </c>
       <c r="I21" s="3">
         <v>-26300</v>
       </c>
       <c r="J21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-19300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-30500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-29300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1335,72 +1374,78 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-52900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-44300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-37200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-33800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-33100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-30500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1410,27 +1455,27 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4400</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1446,8 +1491,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1541,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-52900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-44300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-37200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-27200</v>
       </c>
       <c r="I26" s="3">
         <v>-27200</v>
       </c>
       <c r="J26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-19500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-33100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-30500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-52900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-44300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-37200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-27200</v>
       </c>
       <c r="I27" s="3">
         <v>-27200</v>
       </c>
       <c r="J27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-21700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-43100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-35000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1841,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1787,90 +1856,96 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-52900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-44300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-37200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-27200</v>
       </c>
       <c r="I33" s="3">
         <v>-27200</v>
       </c>
       <c r="J33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-21700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-43100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-35000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1991,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-52900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-44300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-37200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-27200</v>
       </c>
       <c r="I35" s="3">
         <v>-27200</v>
       </c>
       <c r="J35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-21700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-43100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-35000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,41 +2138,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E41" s="3">
         <v>129200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>195600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>351600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>104300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>64900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>182700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,41 +2186,44 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>468600</v>
+      </c>
+      <c r="E42" s="3">
         <v>479500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>450700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>330000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>336500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>401300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>301500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>165300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>106100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>114500</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2147,41 +2236,44 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E43" s="3">
         <v>7400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2286,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,41 +2336,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E45" s="3">
         <v>7500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>8200</v>
       </c>
       <c r="F45" s="3">
         <v>8200</v>
       </c>
       <c r="G45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H45" s="3">
         <v>7000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,41 +2386,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>589800</v>
+      </c>
+      <c r="E46" s="3">
         <v>623500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>661000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>697400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>454100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>482900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>340400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>362100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>134000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>149100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2436,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,41 +2486,44 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E48" s="3">
         <v>35300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>37600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>35200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>36000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,41 +2536,44 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E49" s="3">
         <v>74800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>75000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>75300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>75600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>75800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>76100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>76400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>76600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>76900</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,8 +2586,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,41 +2686,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="E52" s="3">
         <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G52" s="3">
         <v>1400</v>
       </c>
       <c r="H52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,41 +2786,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>738000</v>
+      </c>
+      <c r="E54" s="3">
         <v>735000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>774000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>811700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>567400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>595100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>454000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>454300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>220500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>234700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,41 +2878,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E57" s="3">
         <v>10500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2926,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2813,14 +2946,14 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -2828,8 +2961,8 @@
       <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>200</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -2843,41 +2976,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E59" s="3">
         <v>41400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>35700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>33500</v>
       </c>
       <c r="J59" s="3">
         <v>33500</v>
       </c>
       <c r="K59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="L59" s="3">
         <v>31500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,41 +3026,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E60" s="3">
         <v>51900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>45800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>43800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>47200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>42400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>43700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>41500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,8 +3076,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,41 +3126,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E62" s="3">
         <v>44900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>43200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>47600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>49700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>30400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,41 +3326,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>135400</v>
+      </c>
+      <c r="E66" s="3">
         <v>96800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>89000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>89100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>92700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>90000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>93500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>69000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3359,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>305100</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>305100</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>305100</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3379,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,41 +3596,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-452600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-400000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-347000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-302700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-265500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-231300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-204100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-176900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-157400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-142800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,41 +3796,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>602600</v>
+      </c>
+      <c r="E76" s="3">
         <v>638200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>685000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>722600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>474700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>505100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>360500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>385300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-152600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-139400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3896,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-52900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-44300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-37200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-27200</v>
       </c>
       <c r="I81" s="3">
         <v>-27200</v>
       </c>
       <c r="J81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-21700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-43100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-35000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3838,7 +4036,7 @@
         <v>1100</v>
       </c>
       <c r="F83" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="G83" s="3">
         <v>900</v>
@@ -3856,25 +4054,28 @@
         <v>900</v>
       </c>
       <c r="L83" s="3">
+        <v>900</v>
+      </c>
+      <c r="M83" s="3">
         <v>2500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4321,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-36600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-34100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-25000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-28000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-38000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4393,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4541,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-122800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>62900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-101000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-136500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-59700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-110000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4811,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>282300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>168900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>253700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>4200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>56600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4911,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-66400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-156000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>247300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>39400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>40900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-157800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>166000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-47800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>68300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>RVMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,137 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E8" s="3">
         <v>9500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9800</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +844,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E12" s="3">
         <v>53700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>46500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>45900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>40900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>37000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>34900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>32900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>27500</v>
       </c>
       <c r="L12" s="3">
         <v>27500</v>
       </c>
       <c r="M12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="N12" s="3">
         <v>64300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>32900</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E17" s="3">
         <v>62400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>54300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>53200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>47500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>42800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>72500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>38500</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-52900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-53200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-44500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-37400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-34000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-28000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-34500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-28700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,13 +1277,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1259,93 +1293,99 @@
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-51600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-51900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-43200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-36200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-32900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-26300</v>
       </c>
       <c r="J21" s="3">
         <v>-26300</v>
       </c>
       <c r="K21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-19300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-30500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1377,75 +1417,81 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-52700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-52900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-44300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-37200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-33800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-33100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1458,27 +1504,27 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4400</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-52700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-52900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-44300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-37200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-34200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-27200</v>
       </c>
       <c r="J26" s="3">
         <v>-27200</v>
       </c>
       <c r="K26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-19500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-33100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-52700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-52900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-44300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-37200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-27200</v>
       </c>
       <c r="J27" s="3">
         <v>-27200</v>
       </c>
       <c r="K27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-21700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-43100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,13 +1911,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
@@ -1859,93 +1929,99 @@
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1700</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-52700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-52900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-44300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-37200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-27200</v>
       </c>
       <c r="J33" s="3">
         <v>-27200</v>
       </c>
       <c r="K33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-21700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-43100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-52700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-52900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-44300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-37200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-27200</v>
       </c>
       <c r="J35" s="3">
         <v>-27200</v>
       </c>
       <c r="K35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-21700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-43100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,44 +2225,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E41" s="3">
         <v>108500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>129200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>195600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>351600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>104300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>64900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>182700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,44 +2276,47 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>421100</v>
+      </c>
+      <c r="E42" s="3">
         <v>468600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>479500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>450700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>330000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>336500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>401300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>301500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>165300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>106100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>114500</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,44 +2329,47 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E43" s="3">
         <v>5900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,44 +2435,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E45" s="3">
         <v>6800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>8200</v>
       </c>
       <c r="G45" s="3">
         <v>8200</v>
       </c>
       <c r="H45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I45" s="3">
         <v>7000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,44 +2488,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>534300</v>
+      </c>
+      <c r="E46" s="3">
         <v>589800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>623500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>661000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>697400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>454100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>482900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>340400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>362100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>134000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>149100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,8 +2541,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,44 +2594,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E48" s="3">
         <v>71200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>37600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>36300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>36000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,44 +2647,47 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E49" s="3">
         <v>74500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>74800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>75000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>75300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>75600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>75800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>76100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>76400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>76600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>76900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,44 +2806,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1300</v>
       </c>
       <c r="F52" s="3">
         <v>1300</v>
       </c>
       <c r="G52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H52" s="3">
         <v>1400</v>
       </c>
       <c r="I52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,44 +2912,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>682800</v>
+      </c>
+      <c r="E54" s="3">
         <v>738000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>735000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>774000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>811700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>567400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>595100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>454000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>454300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>220500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>234700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,44 +3009,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E57" s="3">
         <v>14100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2949,14 +3083,14 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -2964,8 +3098,8 @@
       <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>200</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
@@ -2979,44 +3113,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E59" s="3">
         <v>46300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>35400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>35700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>33500</v>
       </c>
       <c r="K59" s="3">
         <v>33500</v>
       </c>
       <c r="L59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="M59" s="3">
         <v>31500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,44 +3166,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E60" s="3">
         <v>60400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>45800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>43800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>47200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>42400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>43700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>43100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,8 +3219,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3129,44 +3272,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E62" s="3">
         <v>75100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>44900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>43200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>45500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>47600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>49700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,44 +3484,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>131800</v>
+      </c>
+      <c r="E66" s="3">
         <v>135400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>96800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>89000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>89100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>92700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>90000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>93500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3529,13 +3697,13 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>305100</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>305100</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>305100</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,44 +3770,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-510300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-452600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-400000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-347000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-302700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-265500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-231300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-204100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-176900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-157400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-142800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,44 +3982,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>551000</v>
+      </c>
+      <c r="E76" s="3">
         <v>602600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>638200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>685000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>722600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>474700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>505100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>360500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>385300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-152600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-139400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-52700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-52900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-44300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-37200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-27200</v>
       </c>
       <c r="J81" s="3">
         <v>-27200</v>
       </c>
       <c r="K81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-21700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-43100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,13 +4222,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E83" s="3">
         <v>1100</v>
@@ -4039,7 +4238,7 @@
         <v>1100</v>
       </c>
       <c r="G83" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="H83" s="3">
         <v>900</v>
@@ -4057,25 +4256,28 @@
         <v>900</v>
       </c>
       <c r="M83" s="3">
+        <v>900</v>
+      </c>
+      <c r="N83" s="3">
         <v>2500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-39300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-36600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-34100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-37200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-25000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-28000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-38000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E94" s="3">
         <v>8500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-30200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-122800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>62900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-101000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-136500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-59700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>8000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-110000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,58 +5057,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>10700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>282300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>168900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>253700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>4200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>56600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-20000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-66400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-156000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>247300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>39400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>40900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-157800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>166000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-47800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>68300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>RVMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,144 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E8" s="3">
         <v>7600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9800</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,8 +854,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E12" s="3">
         <v>56500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>53700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>46500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>45900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>40900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>37000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>34900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>32900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>27500</v>
       </c>
       <c r="M12" s="3">
         <v>27500</v>
       </c>
       <c r="N12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="O12" s="3">
         <v>64300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>32900</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E17" s="3">
         <v>65500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>54300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>53200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>47500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>42800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>40200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>72500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>38500</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-57900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-52900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-53200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-44500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-28000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-21100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-34500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-28700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,16 +1311,17 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1296,96 +1330,102 @@
         <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1700</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-56500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-51600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-51900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-43200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-36200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-32900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-26300</v>
       </c>
       <c r="K21" s="3">
         <v>-26300</v>
       </c>
       <c r="L21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-19300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-30500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-29300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1420,78 +1460,84 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-57600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-52700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-52900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-44300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-37200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-33800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-33100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-30500</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1507,27 +1553,27 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4400</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-57600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-52700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-52900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-44300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-37200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-27200</v>
       </c>
       <c r="K26" s="3">
         <v>-27200</v>
       </c>
       <c r="L26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-19500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-33100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-30500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-57600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-52700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-52900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-44300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-37200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-27200</v>
       </c>
       <c r="K27" s="3">
         <v>-27200</v>
       </c>
       <c r="L27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-21700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-43100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-35000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,16 +1981,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -1932,96 +2002,102 @@
         <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1700</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-57600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-52700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-52900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-44300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-37200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-27200</v>
       </c>
       <c r="K33" s="3">
         <v>-27200</v>
       </c>
       <c r="L33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-21700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-43100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-35000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-57600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-52700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-52900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-44300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-37200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-27200</v>
       </c>
       <c r="K35" s="3">
         <v>-27200</v>
       </c>
       <c r="L35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-21700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-43100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-35000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,47 +2312,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>105800</v>
+      </c>
+      <c r="E41" s="3">
         <v>97700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>108500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>129200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>195600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>351600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>104300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>64900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>182700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21800</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,47 +2366,50 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>355700</v>
+      </c>
+      <c r="E42" s="3">
         <v>421100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>468600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>479500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>450700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>330000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>336500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>401300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>301500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>165300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>106100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>114500</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,47 +2422,50 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E43" s="3">
         <v>5400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,47 +2534,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E45" s="3">
         <v>10200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>8200</v>
       </c>
       <c r="H45" s="3">
         <v>8200</v>
       </c>
       <c r="I45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J45" s="3">
         <v>7000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3900</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,47 +2590,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>483000</v>
+      </c>
+      <c r="E46" s="3">
         <v>534300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>589800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>623500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>661000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>697400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>454100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>482900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>340400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>362100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>134000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>149100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,8 +2646,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,47 +2702,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E48" s="3">
         <v>71600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>71200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>37600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>36300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,47 +2758,50 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E49" s="3">
         <v>74200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>74500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>74800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>75000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>75300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>75600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>75800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>76100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>76400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>76600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>76900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,47 +2926,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1300</v>
       </c>
       <c r="G52" s="3">
         <v>1300</v>
       </c>
       <c r="H52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I52" s="3">
         <v>1400</v>
       </c>
       <c r="J52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,47 +3038,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>632800</v>
+      </c>
+      <c r="E54" s="3">
         <v>682800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>738000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>735000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>774000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>811700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>567400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>595100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>454000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>454300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>220500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>234700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,47 +3140,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E57" s="3">
         <v>14200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3086,14 +3220,14 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
@@ -3101,8 +3235,8 @@
       <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>200</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
@@ -3116,47 +3250,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E59" s="3">
         <v>43300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>41400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>35400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>35700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>33500</v>
       </c>
       <c r="L59" s="3">
         <v>33500</v>
       </c>
       <c r="M59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="N59" s="3">
         <v>31500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>32500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,47 +3306,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E60" s="3">
         <v>57500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>60400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>45800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>43800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>47200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>42400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>41500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>43100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,8 +3362,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3275,47 +3418,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E62" s="3">
         <v>74300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>75100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>44900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>43200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>45300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>45500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>47600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>49700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>30400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,47 +3642,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E66" s="3">
         <v>131800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>135400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>96800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>89000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>89100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>92700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>90000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>93500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3700,13 +3868,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>305100</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>305100</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>305100</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,47 +3944,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-571500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-510300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-452600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-400000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-347000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-302700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-265500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-231300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-204100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-176900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-157400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-142800</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,47 +4168,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>498800</v>
+      </c>
+      <c r="E76" s="3">
         <v>551000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>602600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>638200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>685000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>722600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>474700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>505100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>360500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>385300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-152600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-139400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-57600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-52700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-52900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-44300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-37200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-27200</v>
       </c>
       <c r="K81" s="3">
         <v>-27200</v>
       </c>
       <c r="L81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-21700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-43100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-35000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4232,7 +4431,7 @@
         <v>1200</v>
       </c>
       <c r="E83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F83" s="3">
         <v>1100</v>
@@ -4241,7 +4440,7 @@
         <v>1100</v>
       </c>
       <c r="H83" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="I83" s="3">
         <v>900</v>
@@ -4259,25 +4458,28 @@
         <v>900</v>
       </c>
       <c r="N83" s="3">
+        <v>900</v>
+      </c>
+      <c r="O83" s="3">
         <v>2500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-55200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-39300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-36600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-34100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-37200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-25000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-28000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-38000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-12600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E94" s="3">
         <v>44000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>8500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-30200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-122800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>62900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-101000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-136500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-59700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>8000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-110000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>282300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>168900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>253700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>4200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>56600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-20000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-66400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-156000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>247300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>39400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>40900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-157800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>166000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-47800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>68300</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>RVMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,151 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E8" s="3">
         <v>9100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9800</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E12" s="3">
         <v>61000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>56500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>53700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>46500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>45900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>40900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>37000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>34900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>32900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>27500</v>
       </c>
       <c r="N12" s="3">
         <v>27500</v>
       </c>
       <c r="O12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="P12" s="3">
         <v>64300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>18200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>32900</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E17" s="3">
         <v>71200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>65500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>54300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>53200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>47500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>42800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>40200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>31700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>72500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>38500</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-76500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-62100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-57900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-52900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-53200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-44500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-34000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-27500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-28000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-21100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-34500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-28700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,19 +1345,20 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1333,99 +1367,105 @@
         <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1700</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-60000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-56500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-51600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-51900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-43200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-36200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-32900</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-26300</v>
       </c>
       <c r="L21" s="3">
         <v>-26300</v>
       </c>
       <c r="M21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-19300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-30500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-29300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1463,86 +1503,92 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-73600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-61200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-57600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-52700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-52900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-44300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-37200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-33800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-33100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-30500</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1556,27 +1602,27 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4400</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,8 +1638,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-61200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-57600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-52700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-52900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-44300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-37200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-27200</v>
       </c>
       <c r="L26" s="3">
         <v>-27200</v>
       </c>
       <c r="M26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-19500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-33100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-30500</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-61200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-57600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-52700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-52900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-44300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-37200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-27200</v>
       </c>
       <c r="L27" s="3">
         <v>-27200</v>
       </c>
       <c r="M27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-21700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-43100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-35000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,19 +2051,22 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -2005,99 +2075,105 @@
         <v>-200</v>
       </c>
       <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1700</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-61200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-57600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-52700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-52900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-44300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-37200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-27200</v>
       </c>
       <c r="L33" s="3">
         <v>-27200</v>
       </c>
       <c r="M33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-21700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-43100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-35000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-61200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-57600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-52700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-52900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-44300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-37200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-27200</v>
       </c>
       <c r="L35" s="3">
         <v>-27200</v>
       </c>
       <c r="M35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-21700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-43100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-35000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,50 +2399,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>178900</v>
+      </c>
+      <c r="E41" s="3">
         <v>105800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>97700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>108500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>129200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>195600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>351600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>104300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>64900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>182700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,50 +2456,53 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>476100</v>
+      </c>
+      <c r="E42" s="3">
         <v>355700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>421100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>468600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>479500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>450700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>330000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>336500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>401300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>301500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>165300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>106100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>114500</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,50 +2515,53 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E43" s="3">
         <v>5600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,8 +2574,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,50 +2633,53 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E45" s="3">
         <v>16000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>8200</v>
       </c>
       <c r="I45" s="3">
         <v>8200</v>
       </c>
       <c r="J45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K45" s="3">
         <v>7000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3900</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,50 +2692,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>675100</v>
+      </c>
+      <c r="E46" s="3">
         <v>483000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>534300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>589800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>623500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>661000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>697400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>454100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>482900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>340400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>362100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>134000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>149100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2751,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,50 +2810,53 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E48" s="3">
         <v>73300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>71600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>71200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>36700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>37600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>36300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,50 +2869,53 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E49" s="3">
         <v>74000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>74200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>74500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>74800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>75000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>75300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>75600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>75800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>76100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>76400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>76600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>76900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,50 +3046,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1300</v>
       </c>
       <c r="H52" s="3">
         <v>1300</v>
       </c>
       <c r="I52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J52" s="3">
         <v>1400</v>
       </c>
       <c r="K52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,50 +3164,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>825900</v>
+      </c>
+      <c r="E54" s="3">
         <v>632800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>682800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>738000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>735000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>774000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>811700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>567400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>595100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>454000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>454300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>220500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>234700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,50 +3271,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E57" s="3">
         <v>14100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,40 +3328,43 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
@@ -3238,8 +3372,8 @@
       <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3">
+        <v>200</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
@@ -3253,50 +3387,53 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E59" s="3">
         <v>49500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>41400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>35400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>35700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>33500</v>
       </c>
       <c r="M59" s="3">
         <v>33500</v>
       </c>
       <c r="N59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="O59" s="3">
         <v>31500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>32500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,50 +3446,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E60" s="3">
         <v>63500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>57500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>60400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>45800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>43800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>47200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>43700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>41500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>43100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,8 +3505,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3421,50 +3564,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E62" s="3">
         <v>70400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>74300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>75100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>44900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>43200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>45300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>45500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>47600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>49700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>30400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,50 +3800,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E66" s="3">
         <v>134000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>131800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>135400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>96800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>89000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>89100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>92700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>93500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>68000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3871,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>305100</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>305100</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>305100</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,50 +4118,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-644800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-571500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-510300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-452600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-400000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-347000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-302700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-265500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-231300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-204100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-176900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-157400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-142800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,50 +4354,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>681400</v>
+      </c>
+      <c r="E76" s="3">
         <v>498800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>551000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>602600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>638200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>685000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>722600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>474700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>505100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>360500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>385300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-152600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-139400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-61200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-57600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-52700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-52900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-44300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-37200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-27200</v>
       </c>
       <c r="L81" s="3">
         <v>-27200</v>
       </c>
       <c r="M81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-21700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-43100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-35000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,19 +4620,20 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E83" s="3">
         <v>1200</v>
       </c>
       <c r="F83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G83" s="3">
         <v>1100</v>
@@ -4443,7 +4642,7 @@
         <v>1100</v>
       </c>
       <c r="I83" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="J83" s="3">
         <v>900</v>
@@ -4461,25 +4660,28 @@
         <v>900</v>
       </c>
       <c r="O83" s="3">
+        <v>900</v>
+      </c>
+      <c r="P83" s="3">
         <v>2500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-55700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-55200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-39300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-36600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-34100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-37200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-25000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-27000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-28000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-38000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-123400</v>
+      </c>
+      <c r="E94" s="3">
         <v>62400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>44000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>8500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-122800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>62900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-101000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-136500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-59700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>8000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-110000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>248300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>282300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>168900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>253700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>4200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>56600</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E102" s="3">
         <v>8100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-20000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-66400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-156000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>247300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>39400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>40900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-157800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>166000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-47800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>68300</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>RVMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,157 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E8" s="3">
         <v>3400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9800</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +873,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +961,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E12" s="3">
         <v>69500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>61000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>56500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>53700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>46500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>45900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>40900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>37000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>34900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>32900</v>
-      </c>
-      <c r="N12" s="3">
-        <v>27500</v>
       </c>
       <c r="O12" s="3">
         <v>27500</v>
       </c>
       <c r="P12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="Q12" s="3">
         <v>64300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>18200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>32900</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1083,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1145,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E17" s="3">
         <v>79900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>71200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>65500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>62400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>54300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>53200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>47500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>40200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>31700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>72500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>38500</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-76500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-62100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-57900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-52900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-53200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-44500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-34000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-27500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-28000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-21100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-28700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,22 +1378,23 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E20" s="3">
         <v>2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1370,102 +1403,108 @@
         <v>200</v>
       </c>
       <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1700</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-72400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-60000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-56500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-51600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-51900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-43200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-36200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-32900</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-26300</v>
       </c>
       <c r="M21" s="3">
         <v>-26300</v>
       </c>
       <c r="N21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-19300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-10600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-29300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1506,93 +1545,99 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-73600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-61200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-57600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-52700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-52900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-44300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-37200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-33800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-30500</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1605,27 +1650,27 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4400</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1686,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-73300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-61200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-57600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-52700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-52900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-44300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-37200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-27200</v>
       </c>
       <c r="M26" s="3">
         <v>-27200</v>
       </c>
       <c r="N26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-19500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-30500</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-73300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-61200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-57600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-52700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-52900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-44300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-37200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-27200</v>
       </c>
       <c r="M27" s="3">
         <v>-27200</v>
       </c>
       <c r="N27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-21700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-13900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-35000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,22 +2120,25 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -2078,102 +2147,108 @@
         <v>-200</v>
       </c>
       <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1700</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-73300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-61200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-57600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-52700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-52900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-44300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-37200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-27200</v>
       </c>
       <c r="M33" s="3">
         <v>-27200</v>
       </c>
       <c r="N33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-21700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-13900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-35000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-73300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-61200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-57600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-52700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-52900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-44300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-37200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-27200</v>
       </c>
       <c r="M35" s="3">
         <v>-27200</v>
       </c>
       <c r="N35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-21700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-13900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-35000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,53 +2485,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>161400</v>
+      </c>
+      <c r="E41" s="3">
         <v>178900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>105800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>97700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>108500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>129200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>195600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>351600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>104300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>64900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>182700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21800</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,53 +2545,56 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>483500</v>
+      </c>
+      <c r="E42" s="3">
         <v>476100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>355700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>421100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>468600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>479500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>450700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>330000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>336500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>401300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>301500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>165300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>106100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>114500</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2518,53 +2607,56 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E43" s="3">
         <v>4900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2669,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,53 +2731,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E45" s="3">
         <v>15200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>8200</v>
       </c>
       <c r="J45" s="3">
         <v>8200</v>
       </c>
       <c r="K45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="L45" s="3">
         <v>7000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3900</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,53 +2793,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>660200</v>
+      </c>
+      <c r="E46" s="3">
         <v>675100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>483000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>534300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>589800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>623500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>661000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>697400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>454100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>482900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>340400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>362100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>134000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>149100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,8 +2855,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,53 +2917,56 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E48" s="3">
         <v>74500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>73300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>71600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>71200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>35300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>36700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>37600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,53 +2979,56 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E49" s="3">
         <v>73700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>74000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>74200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>74500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>74800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>75000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>75300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>75600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>75800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>76100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>76400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>76600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>76900</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3041,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,53 +3165,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1300</v>
       </c>
       <c r="I52" s="3">
         <v>1300</v>
       </c>
       <c r="J52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K52" s="3">
         <v>1400</v>
       </c>
       <c r="L52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,53 +3289,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>811900</v>
+      </c>
+      <c r="E54" s="3">
         <v>825900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>632800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>682800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>738000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>735000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>774000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>811700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>567400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>595100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>454000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>454300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>220500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>234700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,53 +3401,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E57" s="3">
         <v>24400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,8 +3461,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3357,17 +3490,17 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
@@ -3375,8 +3508,8 @@
       <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+      <c r="Q58" s="3">
+        <v>200</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
@@ -3390,53 +3523,56 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E59" s="3">
         <v>48900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>41400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>35400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>33500</v>
       </c>
       <c r="N59" s="3">
         <v>33500</v>
       </c>
       <c r="O59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="P59" s="3">
         <v>31500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>32500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,53 +3585,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E60" s="3">
         <v>73300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>63500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>57500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>60400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>51900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>45800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>43800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>47200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>43700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>41500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>43100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>38600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,8 +3647,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,53 +3709,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E62" s="3">
         <v>71200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>70400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>74300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>75100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>44900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>43200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>45300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>47600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>49700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>27500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>30400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3626,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,53 +3957,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>126700</v>
+      </c>
+      <c r="E66" s="3">
         <v>144500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>134000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>131800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>135400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>96800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>89000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>89100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>92700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>93500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>68000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>69100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4042,13 +4209,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>305100</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>305100</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>305100</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4062,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,53 +4291,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-701300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-644800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-571500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-510300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-452600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-400000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-347000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-302700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-265500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-231300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-204100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-176900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-157400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-142800</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,53 +4539,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>685200</v>
+      </c>
+      <c r="E76" s="3">
         <v>681400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>498800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>551000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>602600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>638200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>685000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>722600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>474700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>505100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>360500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>385300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-152600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-139400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-73300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-61200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-57600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-52700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-52900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-44300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-37200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-27200</v>
       </c>
       <c r="M81" s="3">
         <v>-27200</v>
       </c>
       <c r="N81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-21700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-13900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-35000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,22 +4818,23 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1200</v>
       </c>
       <c r="F83" s="3">
         <v>1200</v>
       </c>
       <c r="G83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H83" s="3">
         <v>1100</v>
@@ -4645,7 +4843,7 @@
         <v>1100</v>
       </c>
       <c r="J83" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K83" s="3">
         <v>900</v>
@@ -4663,25 +4861,28 @@
         <v>900</v>
       </c>
       <c r="P83" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-61800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-51700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-55700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-55200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-39300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-36600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-34100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-37200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-25000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-27000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-28000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-11800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-123400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>62400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>44000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>8500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-122800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>62900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-101000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-136500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-59700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>8000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-110000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5794,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E100" s="3">
         <v>248300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>282300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>168900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>253700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>4200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>56600</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5918,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E102" s="3">
         <v>73200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-20000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-66400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-156000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>247300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>40900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-157800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>166000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-47800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>68300</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>RVMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,164 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>38000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9800</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,8 +883,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +948,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,70 +975,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E12" s="3">
         <v>66100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>69500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>61000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>56500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>53700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>46500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>45900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>40900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>37000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>34900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>32900</v>
-      </c>
-      <c r="O12" s="3">
-        <v>27500</v>
       </c>
       <c r="P12" s="3">
         <v>27500</v>
       </c>
       <c r="Q12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="R12" s="3">
         <v>64300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>18200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>32900</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1103,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1148,8 +1168,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E17" s="3">
         <v>77000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>79900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>71200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>65500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>62400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>54300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>53200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>47500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>42800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>40200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>31700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>72500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>38500</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-61700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-76500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-62100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-57900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-52900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-53200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-44500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-37400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-34000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-27500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-28000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-21100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-34500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-28700</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,25 +1412,26 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E20" s="3">
         <v>5100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
@@ -1406,105 +1440,111 @@
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1700</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-66600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-55200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-72400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-60000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-56500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-51600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-51900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-43200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-36200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-32900</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-26300</v>
       </c>
       <c r="N21" s="3">
         <v>-26300</v>
       </c>
       <c r="O21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-19300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-30500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-9300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-10600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-29300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1548,99 +1588,105 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-68100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-56600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-73600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-61200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-57600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-52700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-52900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-44300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-37200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-33800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-27300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-33100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-30500</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1653,27 +1699,27 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1689,8 +1735,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-68100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-56500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-73300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-61200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-57600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-52700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-52900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-44300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-37200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-34200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-27200</v>
       </c>
       <c r="N26" s="3">
         <v>-27200</v>
       </c>
       <c r="O26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-19500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-33100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-30500</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-68100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-56500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-73300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-61200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-57600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-52700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-52900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-44300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-37200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-27200</v>
       </c>
       <c r="N27" s="3">
         <v>-27200</v>
       </c>
       <c r="O27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-21700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-43100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-13900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-35000</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,25 +2190,28 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
@@ -2150,105 +2220,111 @@
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1700</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-68100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-56500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-73300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-61200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-57600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-52700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-52900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-44300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-37200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-27200</v>
       </c>
       <c r="N33" s="3">
         <v>-27200</v>
       </c>
       <c r="O33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-21700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-43100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-13900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-35000</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-68100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-56500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-73300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-61200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-57600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-52700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-52900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-44300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-37200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-27200</v>
       </c>
       <c r="N35" s="3">
         <v>-27200</v>
       </c>
       <c r="O35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-21700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-43100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-13900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-35000</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,56 +2572,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>427200</v>
+      </c>
+      <c r="E41" s="3">
         <v>161400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>178900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>105800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>97700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>108500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>129200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>195600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>351600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>104300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>64900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>182700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21800</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,56 +2635,59 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>482600</v>
+      </c>
+      <c r="E42" s="3">
         <v>483500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>476100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>355700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>421100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>468600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>479500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>450700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>330000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>336500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>401300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>301500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>165300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>106100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>114500</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,56 +2700,59 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2672,8 +2765,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2734,56 +2830,59 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E45" s="3">
         <v>10600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>8200</v>
       </c>
       <c r="K45" s="3">
         <v>8200</v>
       </c>
       <c r="L45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="M45" s="3">
         <v>7000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3900</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,56 +2895,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>922800</v>
+      </c>
+      <c r="E46" s="3">
         <v>660200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>675100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>483000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>534300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>589800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>623500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>661000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>697400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>454100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>482900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>340400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>362100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>134000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>149100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2858,8 +2960,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2920,56 +3025,59 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E48" s="3">
         <v>73700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>74500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>73300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>71600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>71200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>36700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>37600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,56 +3090,59 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E49" s="3">
         <v>73400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>73700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>74000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>74200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>74500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>74800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>75000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>75300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>75600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>75800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>76100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>76400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>76600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>76900</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,56 +3285,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E52" s="3">
         <v>4600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1300</v>
       </c>
       <c r="J52" s="3">
         <v>1300</v>
       </c>
       <c r="K52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="L52" s="3">
         <v>1400</v>
       </c>
       <c r="M52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,56 +3415,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1073200</v>
+      </c>
+      <c r="E54" s="3">
         <v>811900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>825900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>632800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>682800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>738000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>735000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>774000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>811700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>567400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>595100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>454000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>454300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>220500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>234700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3480,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,56 +3532,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E57" s="3">
         <v>21300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,8 +3595,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3493,17 +3627,17 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
@@ -3511,8 +3645,8 @@
       <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
+      <c r="R58" s="3">
+        <v>200</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
@@ -3526,56 +3660,59 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E59" s="3">
         <v>40700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>48900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>41400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>35400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>33500</v>
       </c>
       <c r="O59" s="3">
         <v>33500</v>
       </c>
       <c r="P59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>31500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>32500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3588,56 +3725,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E60" s="3">
         <v>62000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>73300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>63500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>57500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>60400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>51900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>45800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>47200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>43700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>41500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>43100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3790,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3712,56 +3855,59 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E62" s="3">
         <v>64800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>71200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>70400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>74300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>75100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>44900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>43200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>47600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>49700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>27500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>30400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,56 +4115,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E66" s="3">
         <v>126700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>144500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>134000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>131800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>135400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>96800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>89000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>89100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>92700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>93500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>69100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4180,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4212,13 +4380,13 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>305100</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>305100</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>305100</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,56 +4465,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-769400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-701300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-644800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-571500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-510300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-452600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-400000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-347000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-302700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-265500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-231300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-204100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-176900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-157400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-142800</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4356,8 +4530,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,56 +4725,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>952200</v>
+      </c>
+      <c r="E76" s="3">
         <v>685200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>681400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>498800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>551000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>602600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>638200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>685000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>722600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>474700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>505100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>360500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>385300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-152600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-139400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-68100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-56500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-73300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-61200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-57600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-52700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-52900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-44300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-37200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-27200</v>
       </c>
       <c r="N81" s="3">
         <v>-27200</v>
       </c>
       <c r="O81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-21700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-43100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-13900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-35000</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,25 +5017,26 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1200</v>
       </c>
       <c r="G83" s="3">
         <v>1200</v>
       </c>
       <c r="H83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I83" s="3">
         <v>1100</v>
@@ -4846,7 +5045,7 @@
         <v>1100</v>
       </c>
       <c r="K83" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="L83" s="3">
         <v>900</v>
@@ -4864,25 +5063,28 @@
         <v>900</v>
       </c>
       <c r="Q83" s="3">
+        <v>900</v>
+      </c>
+      <c r="R83" s="3">
         <v>2500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-61800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-51700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-55700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-55200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-39300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-36600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-34100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-37200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-25000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-27000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-28000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-38000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-11800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13000</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-123400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>62400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>44000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>8500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-30200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-122800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>62900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-101000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-136500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-59700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>8000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-110000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,70 +6040,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>324200</v>
+      </c>
+      <c r="E100" s="3">
         <v>51400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>248300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>282300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>168900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>253700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>4200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>56600</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,66 +6170,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>265800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>73200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-20000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-66400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-156000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>247300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>40900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-157800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>166000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-47800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>68300</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>RVMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,164 +665,171 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E8" s="3">
         <v>7000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>38000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9800</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,8 +893,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +961,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,73 +989,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E12" s="3">
         <v>68900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>66100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>69500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>61000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>56500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>53700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>46500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>45900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>40900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>37000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>34900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>32900</v>
-      </c>
-      <c r="P12" s="3">
-        <v>27500</v>
       </c>
       <c r="Q12" s="3">
         <v>27500</v>
       </c>
       <c r="R12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="S12" s="3">
         <v>64300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>18200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>32900</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1171,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>112600</v>
+      </c>
+      <c r="E17" s="3">
         <v>82200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>77000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>79900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>71200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>65500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>62400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>54300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>53200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>47500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>42800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>40200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>31700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>72500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>38500</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-108800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-75200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-61700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-76500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-62100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-57900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-52900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-53200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-44500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-37400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-34000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-27500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-28000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-34500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-28700</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,28 +1446,29 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E20" s="3">
         <v>7100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
@@ -1443,113 +1477,119 @@
         <v>200</v>
       </c>
       <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1700</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-66600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-55200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-72400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-60000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-56500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-51600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-51900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-43200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-36200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-32900</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-26300</v>
       </c>
       <c r="O21" s="3">
         <v>-26300</v>
       </c>
       <c r="P21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-18100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-30500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-9300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-10600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-29300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1591,90 +1631,96 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-68100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-56600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-73600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-61200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-57600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-52700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-52900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-44300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-37200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-33800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-27200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-33100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-30500</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1682,14 +1728,14 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1702,27 +1748,27 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4400</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,8 +1784,11 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-68100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-56500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-73300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-61200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-57600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-52700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-52900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-44300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-37200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-34200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-27200</v>
       </c>
       <c r="O26" s="3">
         <v>-27200</v>
       </c>
       <c r="P26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-33100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-30500</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-68100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-56500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-73300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-61200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-57600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-52700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-52900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-44300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-37200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-34200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-27200</v>
       </c>
       <c r="O27" s="3">
         <v>-27200</v>
       </c>
       <c r="P27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-21700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-43100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-35000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,28 +2260,31 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
@@ -2223,108 +2293,114 @@
         <v>-200</v>
       </c>
       <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1700</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-68100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-56500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-73300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-61200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-57600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-52700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-52900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-44300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-37200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-34200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-27200</v>
       </c>
       <c r="O33" s="3">
         <v>-27200</v>
       </c>
       <c r="P33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-21700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-18800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-43100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-12800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-13900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-35000</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-68100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-56500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-73300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-61200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-57600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-52700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-52900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-44300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-37200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-34200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-27200</v>
       </c>
       <c r="O35" s="3">
         <v>-27200</v>
       </c>
       <c r="P35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-21700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-18800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-43100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-12800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-13900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-35000</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,59 +2659,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>380300</v>
+      </c>
+      <c r="E41" s="3">
         <v>427200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>161400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>178900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>105800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>97700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>108500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>129200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>195600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>351600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>104300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>64900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>182700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21800</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2638,59 +2725,62 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>529200</v>
+      </c>
+      <c r="E42" s="3">
         <v>482600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>483500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>476100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>355700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>421100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>468600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>479500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>450700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>330000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>336500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>401300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>301500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>165300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>106100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>114500</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,59 +2793,62 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2768,8 +2861,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2833,59 +2929,62 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E45" s="3">
         <v>9000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>8200</v>
       </c>
       <c r="L45" s="3">
         <v>8200</v>
       </c>
       <c r="M45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="N45" s="3">
         <v>7000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3900</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,59 +2997,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>922100</v>
+      </c>
+      <c r="E46" s="3">
         <v>922800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>660200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>675100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>483000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>534300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>589800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>623500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>661000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>697400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>454100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>482900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>340400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>362100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>134000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>149100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,8 +3065,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3028,59 +3133,62 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E48" s="3">
         <v>72800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>73700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>74500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>73300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>71600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>71200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>37600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>36000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,59 +3201,62 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E49" s="3">
         <v>73100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>73400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>73700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>74000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>74200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>74500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>74800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>75000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>75300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>75600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>75800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>76100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>76400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>76600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>76900</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,59 +3405,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E52" s="3">
         <v>4500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1300</v>
       </c>
       <c r="K52" s="3">
         <v>1300</v>
       </c>
       <c r="L52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="M52" s="3">
         <v>1400</v>
       </c>
       <c r="N52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2000</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3473,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,59 +3541,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1073700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1073200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>811900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>825900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>632800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>682800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>738000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>735000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>774000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>811700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>567400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>595100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>454000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>454300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>220500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>234700</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3483,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,59 +3663,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E57" s="3">
         <v>19900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6000</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,8 +3729,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3630,17 +3764,17 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
@@ -3648,8 +3782,8 @@
       <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
+      <c r="S58" s="3">
+        <v>200</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
@@ -3663,59 +3797,62 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E59" s="3">
         <v>34700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>41400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>35400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>33500</v>
       </c>
       <c r="P59" s="3">
         <v>33500</v>
       </c>
       <c r="Q59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="R59" s="3">
         <v>31500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>32500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,59 +3865,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E60" s="3">
         <v>54600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>62000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>73300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>63500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>57500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>60400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>51900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>45800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>43800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>47200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>43700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>41500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>43100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>38600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3793,8 +3933,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3858,59 +4001,62 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E62" s="3">
         <v>66400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>64800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>71200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>70400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>74300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>75100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>44900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>43200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>45500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>47600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>49700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>27500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>24900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>30400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3923,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,59 +4273,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E66" s="3">
         <v>121000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>126700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>144500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>134000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>131800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>135400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>96800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>89000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>89100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>92700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>93500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>69000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>68000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>69100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4183,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4383,13 +4551,13 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>305100</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>305100</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>305100</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,59 +4639,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-867700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-769400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-701300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-644800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-571500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-510300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-452600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-400000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-347000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-302700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-265500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-231300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-204100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-176900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-157400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-142800</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4533,8 +4707,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,59 +4911,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>930800</v>
+      </c>
+      <c r="E76" s="3">
         <v>952200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>685200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>681400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>498800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>551000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>602600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>638200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>685000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>722600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>474700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>505100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>360500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>385300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-152600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-139400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4793,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-68100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-56500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-73300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-61200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-57600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-52700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-52900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-44300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-37200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-34200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-27200</v>
       </c>
       <c r="O81" s="3">
         <v>-27200</v>
       </c>
       <c r="P81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-21700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-18800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-43100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-12800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-13900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-35000</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5027,19 +5226,19 @@
         <v>1500</v>
       </c>
       <c r="E83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1200</v>
       </c>
       <c r="H83" s="3">
         <v>1200</v>
       </c>
       <c r="I83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J83" s="3">
         <v>1100</v>
@@ -5048,7 +5247,7 @@
         <v>1100</v>
       </c>
       <c r="L83" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M83" s="3">
         <v>900</v>
@@ -5066,25 +5265,28 @@
         <v>900</v>
       </c>
       <c r="R83" s="3">
+        <v>900</v>
+      </c>
+      <c r="S83" s="3">
         <v>2500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-62400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-61800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-51700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-55700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-55200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-39300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-36600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-34100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-37200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-25000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-27000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-38000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-12600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-11800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13000</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1300</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="E94" s="3">
         <v>4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-123400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>62400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>44000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>8500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-30200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-122800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>62900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-101000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-136500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-59700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>8000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-110000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1300</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,73 +6286,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E100" s="3">
         <v>324200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>51400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>248300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>282300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>168900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>253700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>4200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>56600</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,69 +6422,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E102" s="3">
         <v>265800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>73200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-20000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-66400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-156000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>247300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>40900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-157800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>166000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-47800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>68300</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>RVMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,171 +665,178 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>3800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>38000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9800</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>107700</v>
+      </c>
+      <c r="E12" s="3">
         <v>98000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>68900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>66100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>69500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>61000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>56500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>53700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>46500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>45900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>40900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>37000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>34900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>32900</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>27500</v>
       </c>
       <c r="R12" s="3">
         <v>27500</v>
       </c>
       <c r="S12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="T12" s="3">
         <v>64300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>18200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>32900</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1194,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>123200</v>
+      </c>
+      <c r="E17" s="3">
         <v>112600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>82200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>77000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>79900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>71200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>65500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>62400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>54300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>53200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>47500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>42800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>40200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>38000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>32600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>31700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>72500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>23600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>22000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>38500</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-108800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-75200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-61700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-76500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-62100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-57900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-52900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-53200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-44500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-37400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-34000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-27500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-21100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-19600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-34500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-10400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-11700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-28700</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,31 +1480,32 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>10500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
@@ -1480,119 +1514,125 @@
         <v>200</v>
       </c>
       <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1700</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-96800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-66600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-55200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-72400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-60000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-56500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-51600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-51900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-43200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-36200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-32900</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-26300</v>
       </c>
       <c r="P21" s="3">
         <v>-26300</v>
       </c>
       <c r="Q21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-19300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-18100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-30500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-9300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-10600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-29300</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1634,111 +1674,117 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-112300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-98300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-68100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-56600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-73600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-61200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-57600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-52700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-52900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-44300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-37200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-33800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-33100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-30500</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-3900</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1751,27 +1797,27 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4400</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1787,8 +1833,11 @@
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-108400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-98300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-68100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-56500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-73300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-61200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-57600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-52700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-52900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-44300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-37200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-34200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-27200</v>
       </c>
       <c r="P26" s="3">
         <v>-27200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-19500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-33100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-10100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-30500</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-108400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-98300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-68100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-56500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-73300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-61200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-57600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-52700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-52900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-44300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-37200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-34200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-27200</v>
       </c>
       <c r="P27" s="3">
         <v>-27200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-21700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-18800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-43100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-13900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-35000</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,31 +2330,34 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
@@ -2296,111 +2366,117 @@
         <v>-200</v>
       </c>
       <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1700</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-108400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-98300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-68100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-56500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-73300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-61200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-57600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-52700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-52900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-44300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-37200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-34200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-27200</v>
       </c>
       <c r="P33" s="3">
         <v>-27200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-21700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-18800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-43100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-12800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-13900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-35000</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-108400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-98300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-68100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-56500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-73300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-61200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-57600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-52700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-52900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-44300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-37200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-34200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-27200</v>
       </c>
       <c r="P35" s="3">
         <v>-27200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-21700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-18800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-43100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-12800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-13900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-35000</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,62 +2746,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>358400</v>
+      </c>
+      <c r="E41" s="3">
         <v>380300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>427200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>161400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>178900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>105800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>97700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>108500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>129200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>195600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>351600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>104300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>64900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>182700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21800</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,62 +2815,65 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>454800</v>
+      </c>
+      <c r="E42" s="3">
         <v>529200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>482600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>483500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>476100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>355700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>421100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>468600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>479500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>450700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>330000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>336500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>401300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>301500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>165300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>106100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>114500</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,62 +2886,65 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9000</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2957,11 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2932,62 +3028,65 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E45" s="3">
         <v>10100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>8200</v>
       </c>
       <c r="M45" s="3">
         <v>8200</v>
       </c>
       <c r="N45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="O45" s="3">
         <v>7000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3900</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,62 +3099,65 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>824500</v>
+      </c>
+      <c r="E46" s="3">
         <v>922100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>922800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>660200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>675100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>483000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>534300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>589800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>623500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>661000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>697400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>454100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>482900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>340400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>362100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>134000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>149100</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3068,8 +3170,11 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3136,62 +3241,65 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E48" s="3">
         <v>73500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>72800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>73700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>74500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>73300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>71600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>71200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>37600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>35200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>36000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,62 +3312,65 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E49" s="3">
         <v>72900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>73100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>73400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>73700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>74000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>74200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>74500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>74800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>75000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>75300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>75600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>75800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>76100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>76400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>76600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>76900</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3272,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,62 +3525,65 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E52" s="3">
         <v>5300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1300</v>
       </c>
       <c r="L52" s="3">
         <v>1300</v>
       </c>
       <c r="M52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="N52" s="3">
         <v>1400</v>
       </c>
       <c r="O52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2000</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,62 +3667,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>984200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1073700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1073200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>811900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>825900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>632800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>682800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>738000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>735000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>774000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>811700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>567400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>595100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>454000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>454300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>220500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>234700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,62 +3794,63 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E57" s="3">
         <v>29800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6000</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3732,8 +3863,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3767,17 +3901,17 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
@@ -3785,8 +3919,8 @@
       <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
+      <c r="T58" s="3">
+        <v>200</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
@@ -3800,62 +3934,65 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E59" s="3">
         <v>48300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>40700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>41400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>35700</v>
-      </c>
-      <c r="P59" s="3">
-        <v>33500</v>
       </c>
       <c r="Q59" s="3">
         <v>33500</v>
       </c>
       <c r="R59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="S59" s="3">
         <v>31500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>32500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,62 +4005,65 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E60" s="3">
         <v>78100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>62000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>73300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>63500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>57500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>60400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>51900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>45800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>43800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>47200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>42400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>43700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>41500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>43100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>38600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,8 +4076,11 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4004,62 +4147,65 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E62" s="3">
         <v>64800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>66400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>64800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>71200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>70400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>74300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>75100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>44900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>43200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>45300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>45500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>47600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>49700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>24900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>30400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4072,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,62 +4431,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>146800</v>
+      </c>
+      <c r="E66" s="3">
         <v>142900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>121000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>126700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>144500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>134000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>131800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>135400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>96800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>89000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>89100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>92700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>93500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>69000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>68000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>69100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4344,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4554,13 +4722,13 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>305100</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>305100</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>305100</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
@@ -4574,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,62 +4813,65 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-976200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-867700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-769400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-701300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-644800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-571500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-510300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-452600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-400000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-347000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-302700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-265500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-231300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-204100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-176900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-157400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-142800</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4710,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,62 +5097,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>837500</v>
+      </c>
+      <c r="E76" s="3">
         <v>930800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>952200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>685200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>681400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>498800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>551000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>602600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>638200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>685000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>722600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>474700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>505100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>360500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>385300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-152600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-139400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4982,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-108400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-98300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-68100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-56500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-73300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-61200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-57600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-52700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-52900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-44300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-37200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-34200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-27200</v>
       </c>
       <c r="P81" s="3">
         <v>-27200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-21700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-18800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-43100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-12800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-13900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-35000</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5229,19 +5428,19 @@
         <v>1500</v>
       </c>
       <c r="F83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1200</v>
       </c>
       <c r="I83" s="3">
         <v>1200</v>
       </c>
       <c r="J83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K83" s="3">
         <v>1100</v>
@@ -5250,7 +5449,7 @@
         <v>1100</v>
       </c>
       <c r="M83" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="N83" s="3">
         <v>900</v>
@@ -5268,25 +5467,28 @@
         <v>900</v>
       </c>
       <c r="S83" s="3">
+        <v>900</v>
+      </c>
+      <c r="T83" s="3">
         <v>2500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1100</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-67100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-62400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-61800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-51700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-55700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-55200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-39300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-36600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-34100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-37200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-25000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-27000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-28000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-11700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-38000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-12600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-11800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13000</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1300</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-123400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>62400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>44000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-122800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>62900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-101000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-136500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-59700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>8000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-110000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1300</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>64600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>324200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>51400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>248300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>282300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>168900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>253700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>4200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>56600</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-46000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>265800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>73200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-20000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-66400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-156000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>247300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>39400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>40900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-157800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>166000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-47800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>68300</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
